--- a/BKM 004.xlsx
+++ b/BKM 004.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\vokasibackoffice\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
-    <sheet name="Team" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Team" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -21,14 +27,13 @@
     <author>LENOVO</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
-            <charset val="0"/>
           </rPr>
           <t>LENOVO:</t>
         </r>
@@ -36,7 +41,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
-            <charset val="0"/>
           </rPr>
           <t xml:space="preserve">
 Download 
@@ -57,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>BKM - 004 - Project Akhir</t>
   </si>
@@ -186,19 +190,73 @@
   </si>
   <si>
     <t>16. Nasrul Ramadhan</t>
+  </si>
+  <si>
+    <t>Admin System</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>User Role</t>
+  </si>
+  <si>
+    <t>Icons</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Global Param</t>
+  </si>
+  <si>
+    <t>School Years</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Manage Data</t>
+  </si>
+  <si>
+    <t>Majors</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>BOT (Telegram)</t>
+  </si>
+  <si>
+    <t>Channels</t>
+  </si>
+  <si>
+    <t>Commands</t>
+  </si>
+  <si>
+    <t>Broadcast</t>
+  </si>
+  <si>
+    <t>Students (Include Parents)</t>
+  </si>
+  <si>
+    <t>Instance (Instance Unit)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,356 +273,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -572,255 +298,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,62 +323,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1152,25 +598,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="23.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,46 +632,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" hidden="1"/>
-    <row r="12" hidden="1"/>
+    <row r="11" spans="1:3" hidden="1"/>
+    <row r="12" spans="1:3" hidden="1"/>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>11</v>
@@ -1237,17 +683,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1289,23 +735,144 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1364,12 +931,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="5:5">
+    <row r="8" spans="1:5">
       <c r="E8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1406,29 +973,24 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="5:5">
+    <row r="15" spans="1:5">
       <c r="E15" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/BKM 004.xlsx
+++ b/BKM 004.xlsx
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -282,12 +282,18 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -304,7 +310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -328,6 +334,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -793,12 +802,12 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
     </row>
